--- a/Projects/DIAGEOUS_SAND/Data/Template.xlsx
+++ b/Projects/DIAGEOUS_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="67">
   <si>
     <t>KPI Name</t>
   </si>
@@ -76,13 +76,13 @@
     <t>Shelf Facings</t>
   </si>
   <si>
-    <t>Main Shelf, Behind the Counter, Scotch Main Shelf, Beer Main Shelf</t>
+    <t>Main Shelf, Behind the Counter</t>
   </si>
   <si>
     <t>Shelf Placement</t>
   </si>
   <si>
-    <t>Main Shelf, Scotch Main Shelf, Beer Main Shelf</t>
+    <t>Main Shelf</t>
   </si>
   <si>
     <t>MSRP</t>
@@ -106,13 +106,25 @@
     <t>BENCHMARK Value</t>
   </si>
   <si>
-    <t>AAA</t>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Brand Benchmark</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>50%</t>
   </si>
   <si>
     <t>Facings</t>
   </si>
   <si>
-    <t>Brand Benchmark</t>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
   <si>
     <t>Pricing ($)</t>
@@ -151,13 +163,43 @@
     <t>shelf groups</t>
   </si>
   <si>
+    <t>1: E</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>T</t>
+    <t>2: E T</t>
   </si>
   <si>
-    <t>R</t>
+    <t>E, T</t>
+  </si>
+  <si>
+    <t>3: E T R</t>
+  </si>
+  <si>
+    <t>E, T, R</t>
+  </si>
+  <si>
+    <t>4: E T R K </t>
+  </si>
+  <si>
+    <t>E, T, R, K</t>
+  </si>
+  <si>
+    <t>5: E T R K TT</t>
+  </si>
+  <si>
+    <t>E, T, R, K, TT</t>
+  </si>
+  <si>
+    <t>6: E T R K TT B</t>
+  </si>
+  <si>
+    <t>E, T, R, K, TT, B</t>
+  </si>
+  <si>
+    <t>7: E T R K TT B</t>
   </si>
   <si>
     <t>Shelf Name</t>
@@ -175,7 +217,13 @@
     <t>B</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>TT</t>
@@ -185,9 +233,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -282,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -313,34 +360,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -367,7 +386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,22 +443,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,15 +451,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,18 +463,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,14 +472,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,15 +552,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>367560</xdr:rowOff>
+      <xdr:rowOff>366840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,8 +573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="255600" y="7200"/>
-          <a:ext cx="1706400" cy="360360"/>
+          <a:off x="309600" y="7200"/>
+          <a:ext cx="1724760" cy="359640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,15 +589,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>358200</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1403280</xdr:colOff>
+      <xdr:colOff>1456560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>341280</xdr:rowOff>
+      <xdr:rowOff>331560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -635,8 +610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2196360" y="14040"/>
-          <a:ext cx="1045080" cy="327240"/>
+          <a:off x="2269440" y="5040"/>
+          <a:ext cx="1044360" cy="326520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,13 +626,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>281880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>281880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -668,7 +643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066040" y="2880"/>
+          <a:off x="2139120" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -703,15 +678,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2021400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>367560</xdr:rowOff>
+      <xdr:rowOff>366840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -724,8 +699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="255600" y="7200"/>
-          <a:ext cx="1765800" cy="360360"/>
+          <a:off x="309600" y="7200"/>
+          <a:ext cx="1765080" cy="359640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,16 +714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2249280</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>879120</xdr:colOff>
+      <xdr:colOff>1483560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>341280</xdr:rowOff>
+      <xdr:rowOff>331560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -761,8 +736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2249280" y="14040"/>
-          <a:ext cx="1220400" cy="327240"/>
+          <a:off x="2311560" y="5040"/>
+          <a:ext cx="1238760" cy="326520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -776,14 +751,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2111400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2111400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -794,7 +769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2111400" y="2880"/>
+          <a:off x="2173680" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -829,15 +804,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2021400</xdr:colOff>
+      <xdr:colOff>2074680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>367560</xdr:rowOff>
+      <xdr:rowOff>366840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -850,8 +825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="255600" y="7200"/>
-          <a:ext cx="1765800" cy="360360"/>
+          <a:off x="309600" y="7200"/>
+          <a:ext cx="1765080" cy="359640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,15 +841,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2249280</xdr:colOff>
+      <xdr:colOff>2303280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>879120</xdr:colOff>
+      <xdr:colOff>932400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>341280</xdr:rowOff>
+      <xdr:rowOff>331560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -887,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2249280" y="14040"/>
-          <a:ext cx="1220400" cy="327240"/>
+          <a:off x="2303280" y="5040"/>
+          <a:ext cx="1257840" cy="326520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,13 +878,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2111400</xdr:colOff>
+      <xdr:colOff>2165400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2111400</xdr:colOff>
+      <xdr:colOff>2165400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -920,7 +895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2111400" y="2880"/>
+          <a:off x="2165400" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -957,16 +932,16 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -1084,7 +1059,7 @@
         <v>0.0875</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1178,18 +1153,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1227,72 +1202,2595 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14" t="n">
-        <v>8769289102</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>1</v>
+      <c r="B4" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>100059</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14" t="n">
-        <v>8769210014</v>
-      </c>
-      <c r="C5" s="14" t="n">
-        <v>8382012393</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="16" t="n">
+      <c r="B5" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100157</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100014</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>100202</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>100932</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>8769227102</v>
-      </c>
-      <c r="C6" s="14" t="n">
-        <v>8382010403</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>100970</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>100356</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>100035</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>100018</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>100131</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>100305</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>100129</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>100272</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>100164</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>100176</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>100330</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>100134</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>100653</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>101014</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>100184</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>100009</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>100258</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>100550</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>101673</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>100095</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>100059</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>100157</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>100014</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>100202</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>100932</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>101351</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>100447</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>100050</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>100002</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>100131</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>100305</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>100129</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>100272</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>100164</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>100176</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>100330</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>100134</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>100653</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>101014</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>100184</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>100009</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="C101" s="0" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>100419</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>101673</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>100095</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>100059</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>100157</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>100014</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>100202</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>100932</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>100970</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>100356</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>100035</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>100018</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>100131</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>100305</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>100129</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>100272</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>100164</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>100176</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>100330</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>100134</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>100653</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>101014</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>100184</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>100009</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>100258</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>100550</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>101673</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>100095</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1314,21 +3812,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1338,166 +3837,3253 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>33</v>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
-        <v>8769289102</v>
-      </c>
-      <c r="B4" s="14" t="n">
-        <v>8382012360</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="A4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>100059</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>100704</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100157</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100014</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>100202</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>100932</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>229.99</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>100970</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>100356</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>100035</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>100018</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>100131</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>100305</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>100129</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>101900</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>100278</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>100272</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>100164</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>100176</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>100330</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>100134</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>100653</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>101014</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>69.99</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>139.99</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>100424</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>100082</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <v>8769210014</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>8382012393</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>100184</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>100009</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>79.99</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>69.99</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>79.99</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>100258</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>100550</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>101673</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>100095</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>100059</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>100704</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>100157</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>100014</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>100202</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>100932</v>
+      </c>
+      <c r="D74" s="0" t="n">
         <v>-18</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E74" s="0" t="n">
         <v>-12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>8769227102</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="n">
+      <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>199.99</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="G75" s="0" t="n">
         <v>229.99</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>101351</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>100447</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>100050</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>100002</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>100131</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>100305</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>100129</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>101900</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>100278</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>100272</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>100164</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>100176</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>100330</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>100134</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>100653</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>101014</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>69.99</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>139.99</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>100424</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>100082</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>100184</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>100009</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>79.99</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>69.99</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>79.99</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="C108" s="0" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>100419</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>101673</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>100095</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>101108</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>100059</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>100704</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>100157</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>100014</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>100202</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>100932</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>229.99</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>100970</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>100356</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>100035</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>100018</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>100131</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>100305</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>100129</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>101900</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>100278</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>100008</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>100272</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>100164</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>100176</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>100330</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>100134</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>100653</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>101014</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>69.99</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>139.99</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>100424</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>100082</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>100184</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>100009</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>79.99</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>69.99</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>79.99</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>100258</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>100550</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>101673</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>100095</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>101108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,36 +7103,36 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>35</v>
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
@@ -1554,7 +7140,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -1576,16 +7162,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1603,101 +7189,457 @@
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>38</v>
+      <c r="B3" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
-        <v>8382012393</v>
-      </c>
-      <c r="B4" s="25" t="n">
+      <c r="A4" s="0" t="n">
+        <v>100036</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>100090</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>100046</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>100704</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>100024</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>100042</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>100578</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>100061</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>100196</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <v>8382012360</v>
-      </c>
-      <c r="B5" s="25" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>100178</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>101130</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>8382010403</v>
-      </c>
-      <c r="B6" s="25" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>100125</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>100407</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>100126</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>100020</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <v>8382018132</v>
-      </c>
-      <c r="B7" s="25" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>100003</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
-        <v>8382007152</v>
-      </c>
-      <c r="B8" s="25" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>100109</v>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <v>8769289102</v>
-      </c>
-      <c r="B9" s="26" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>100214</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
-        <v>8769210014</v>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>100222</v>
+      </c>
+      <c r="B27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
-        <v>8769227102</v>
-      </c>
-      <c r="B11" s="4" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>100649</v>
+      </c>
+      <c r="B29" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
-        <v>8769211102</v>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>101900</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>100301</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>100265</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>101511</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>100316</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>101820</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>101276</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>100359</v>
+      </c>
+      <c r="B37" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
-        <v>8769211103</v>
-      </c>
-      <c r="B13" s="4" t="n">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>100994</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>101451</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>102184</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>100992</v>
+      </c>
+      <c r="B41" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>100424</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>100501</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>100661</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>100170</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>100069</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>100028</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>101285</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>101155</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>100326</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>101244</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>100280</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>100235</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>100644</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>100963</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>100158</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>102268</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>100071</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>101108</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1716,49 +7658,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="n">
-        <v>1</v>
+      <c r="A4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
-        <v>2</v>
+      <c r="A5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="n">
-        <v>3</v>
+      <c r="A6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1780,47 +7754,47 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" s="29" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="28" t="s">
+    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" s="20" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>2</v>
@@ -1834,7 +7808,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>3</v>
@@ -1848,7 +7822,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>5</v>
@@ -1862,7 +7836,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>2</v>
@@ -1876,7 +7850,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>3</v>
@@ -1888,9 +7862,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>5</v>
@@ -1902,9 +7876,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>5</v>
@@ -1916,9 +7890,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>4</v>
@@ -1930,9 +7904,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>5</v>
@@ -1944,31 +7918,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="30" t="n">
+        <v>66</v>
+      </c>
+      <c r="B13" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="30" t="n">
+      <c r="D13" s="21" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="32" t="n">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="32" t="n">
+      <c r="C14" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D14" s="32" t="n">
+      <c r="D14" s="21" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Projects/DIAGEOUS_SAND/Data/Template.xlsx
+++ b/Projects/DIAGEOUS_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="63">
   <si>
     <t>KPI Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Store Score</t>
   </si>
   <si>
+    <t>1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf, 1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Barrel Display, 6. Lock Box Display</t>
+  </si>
+  <si>
     <t>Proportional</t>
   </si>
   <si>
@@ -70,19 +73,19 @@
     <t>Display Brand</t>
   </si>
   <si>
+    <t>1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Barrel Display, 6. Lock Box Display</t>
+  </si>
+  <si>
     <t>Display Share</t>
   </si>
   <si>
     <t>Shelf Facings</t>
   </si>
   <si>
-    <t>Main Shelf, Behind the Counter</t>
+    <t>1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf</t>
   </si>
   <si>
     <t>Shelf Placement</t>
-  </si>
-  <si>
-    <t>Main Shelf</t>
   </si>
   <si>
     <t>MSRP</t>
@@ -110,12 +113,6 @@
   </si>
   <si>
     <t>Brand Benchmark</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>50%</t>
   </si>
   <si>
     <t>Facings</t>
@@ -148,10 +145,22 @@
     <t>Minimum # of Facings</t>
   </si>
   <si>
-    <t>End CAP</t>
+    <t>1. Floor Display</t>
   </si>
   <si>
-    <t>Floor Display</t>
+    <t>2. End Cap Display</t>
+  </si>
+  <si>
+    <t>3. Rack Display</t>
+  </si>
+  <si>
+    <t>4. One Case Bin Display</t>
+  </si>
+  <si>
+    <t>5. Barrel Display</t>
+  </si>
+  <si>
+    <t>6. Lock Box Display</t>
   </si>
   <si>
     <t>MINIMUM SHELF LOCATION</t>
@@ -163,43 +172,22 @@
     <t>shelf groups</t>
   </si>
   <si>
-    <t>1: E</t>
-  </si>
-  <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>2: E T</t>
   </si>
   <si>
     <t>E, T</t>
   </si>
   <si>
-    <t>3: E T R</t>
-  </si>
-  <si>
     <t>E, T, R</t>
-  </si>
-  <si>
-    <t>4: E T R K </t>
   </si>
   <si>
     <t>E, T, R, K</t>
   </si>
   <si>
-    <t>5: E T R K TT</t>
-  </si>
-  <si>
     <t>E, T, R, K, TT</t>
   </si>
   <si>
-    <t>6: E T R K TT B</t>
-  </si>
-  <si>
     <t>E, T, R, K, TT, B</t>
-  </si>
-  <si>
-    <t>7: E T R K TT B</t>
   </si>
   <si>
     <t>Shelf Name</t>
@@ -233,8 +221,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -386,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,16 +396,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -443,6 +432,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +449,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,15 +549,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>177120</xdr:colOff>
+      <xdr:colOff>257040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>366840</xdr:rowOff>
+      <xdr:rowOff>365760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -573,8 +570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="309600" y="7200"/>
-          <a:ext cx="1724760" cy="359640"/>
+          <a:off x="390600" y="7200"/>
+          <a:ext cx="1752120" cy="358560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -589,15 +586,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>412200</xdr:colOff>
+      <xdr:colOff>493200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1456560</xdr:colOff>
+      <xdr:colOff>1536480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>331560</xdr:rowOff>
+      <xdr:rowOff>330480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,8 +607,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2269440" y="5040"/>
-          <a:ext cx="1044360" cy="326520"/>
+          <a:off x="2378880" y="5040"/>
+          <a:ext cx="1043280" cy="325440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,13 +623,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>281880</xdr:colOff>
+      <xdr:colOff>362880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>281880</xdr:colOff>
+      <xdr:colOff>362880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -643,7 +640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2139120" y="2880"/>
+          <a:off x="2248560" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -678,15 +675,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>366840</xdr:rowOff>
+      <xdr:rowOff>365760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,8 +696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="309600" y="7200"/>
-          <a:ext cx="1765080" cy="359640"/>
+          <a:off x="390600" y="7200"/>
+          <a:ext cx="1792440" cy="358560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,15 +712,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>325800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1483560</xdr:colOff>
+      <xdr:colOff>1563480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>331560</xdr:rowOff>
+      <xdr:rowOff>330480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -736,8 +733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2311560" y="5040"/>
-          <a:ext cx="1238760" cy="326520"/>
+          <a:off x="2421000" y="5040"/>
+          <a:ext cx="1237680" cy="325440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,13 +749,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -769,7 +766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2173680" y="2880"/>
+          <a:off x="2283120" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -804,15 +801,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2074680</xdr:colOff>
+      <xdr:colOff>2154600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>366840</xdr:rowOff>
+      <xdr:rowOff>365760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -825,8 +822,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="309600" y="7200"/>
-          <a:ext cx="1765080" cy="359640"/>
+          <a:off x="390600" y="7200"/>
+          <a:ext cx="1764000" cy="358560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,15 +838,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2303280</xdr:colOff>
+      <xdr:colOff>2384280</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>932400</xdr:colOff>
+      <xdr:colOff>1012320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>331560</xdr:rowOff>
+      <xdr:rowOff>330480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,8 +859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2303280" y="5040"/>
-          <a:ext cx="1257840" cy="326520"/>
+          <a:off x="2384280" y="5040"/>
+          <a:ext cx="1314000" cy="325440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,13 +875,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2165400</xdr:colOff>
+      <xdr:colOff>2246400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2165400</xdr:colOff>
+      <xdr:colOff>2246400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -895,7 +892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2165400" y="2880"/>
+          <a:off x="2246400" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -932,16 +929,16 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="110.696356275304"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -993,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1001,58 +998,64 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0.0875</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -1060,34 +1063,34 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0.0875</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1095,45 +1098,47 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0.0875</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1155,16 +1160,17 @@
   </sheetPr>
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1176,35 +1182,35 @@
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100036</v>
@@ -1213,15 +1219,15 @@
         <v>100059</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>100090</v>
@@ -1230,15 +1236,15 @@
         <v>100054</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100148</v>
@@ -1247,15 +1253,15 @@
         <v>100090</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>100046</v>
@@ -1264,15 +1270,15 @@
         <v>100043</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>100007</v>
@@ -1281,15 +1287,15 @@
         <v>100008</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>100279</v>
@@ -1298,15 +1304,15 @@
         <v>100157</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>100024</v>
@@ -1315,15 +1321,15 @@
         <v>100010</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>100042</v>
@@ -1332,15 +1338,15 @@
         <v>100014</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>100578</v>
@@ -1349,15 +1355,15 @@
         <v>100279</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>100061</v>
@@ -1366,15 +1372,15 @@
         <v>100024</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>100196</v>
@@ -1383,15 +1389,15 @@
         <v>100042</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>100143</v>
@@ -1400,15 +1406,15 @@
         <v>100024</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>100117</v>
@@ -1417,15 +1423,15 @@
         <v>100202</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>100178</v>
@@ -1434,21 +1440,21 @@
         <v>100932</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>101130</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>100125</v>
@@ -1465,15 +1471,15 @@
         <v>100072</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>100407</v>
@@ -1482,15 +1488,15 @@
         <v>100970</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>100126</v>
@@ -1499,15 +1505,15 @@
         <v>100356</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>100020</v>
@@ -1516,15 +1522,15 @@
         <v>100035</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>100003</v>
@@ -1533,15 +1539,15 @@
         <v>100018</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>100109</v>
@@ -1550,15 +1556,15 @@
         <v>100131</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>100214</v>
@@ -1567,15 +1573,15 @@
         <v>100305</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>100222</v>
@@ -1584,15 +1590,15 @@
         <v>100129</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>100508</v>
@@ -1601,15 +1607,15 @@
         <v>100222</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>100649</v>
@@ -1618,15 +1624,15 @@
         <v>100007</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>100301</v>
@@ -1635,15 +1641,15 @@
         <v>100008</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>100265</v>
@@ -1652,15 +1658,15 @@
         <v>100272</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>101511</v>
@@ -1669,15 +1675,15 @@
         <v>100164</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>100316</v>
@@ -1686,15 +1692,15 @@
         <v>100176</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>101820</v>
@@ -1703,15 +1709,15 @@
         <v>100330</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>101276</v>
@@ -1720,15 +1726,15 @@
         <v>100134</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>100359</v>
@@ -1737,15 +1743,15 @@
         <v>100024</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>100994</v>
@@ -1754,15 +1760,15 @@
         <v>100653</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>101451</v>
@@ -1771,21 +1777,21 @@
         <v>101014</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>102184</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1</v>
@@ -1793,13 +1799,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>100992</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>100501</v>
@@ -1816,15 +1822,15 @@
         <v>100494</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>100661</v>
@@ -1833,15 +1839,15 @@
         <v>100117</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>100170</v>
@@ -1850,15 +1856,15 @@
         <v>100184</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>100069</v>
@@ -1867,15 +1873,15 @@
         <v>100009</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>100028</v>
@@ -1884,21 +1890,21 @@
         <v>100001</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>101285</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
@@ -1906,13 +1912,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>101155</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
@@ -1920,13 +1926,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>100326</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>101244</v>
@@ -1943,15 +1949,15 @@
         <v>101145</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E48" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>100280</v>
@@ -1960,15 +1966,15 @@
         <v>100258</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>100235</v>
@@ -1977,15 +1983,15 @@
         <v>100550</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E50" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>100644</v>
@@ -1994,15 +2000,15 @@
         <v>100003</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E51" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>100963</v>
@@ -2011,15 +2017,15 @@
         <v>101673</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>100158</v>
@@ -2028,21 +2034,21 @@
         <v>102651</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>102268</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>100071</v>
@@ -2059,15 +2065,15 @@
         <v>100095</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>100036</v>
@@ -2076,15 +2082,15 @@
         <v>100059</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E56" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>100090</v>
@@ -2093,15 +2099,15 @@
         <v>100054</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>100148</v>
@@ -2110,15 +2116,15 @@
         <v>100090</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E58" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>100046</v>
@@ -2127,15 +2133,15 @@
         <v>100043</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E59" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>100007</v>
@@ -2144,15 +2150,15 @@
         <v>100008</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E60" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>100279</v>
@@ -2161,15 +2167,15 @@
         <v>100157</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E61" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>100024</v>
@@ -2178,15 +2184,15 @@
         <v>100010</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E62" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>100042</v>
@@ -2195,15 +2201,15 @@
         <v>100014</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>100578</v>
@@ -2212,15 +2218,15 @@
         <v>100279</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E64" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>100061</v>
@@ -2229,15 +2235,15 @@
         <v>100024</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E65" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>100196</v>
@@ -2246,15 +2252,15 @@
         <v>100042</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E66" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>100143</v>
@@ -2263,15 +2269,15 @@
         <v>100024</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E67" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>100117</v>
@@ -2280,15 +2286,15 @@
         <v>100202</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E68" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>100178</v>
@@ -2297,21 +2303,21 @@
         <v>100932</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E69" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>101130</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>100125</v>
@@ -2328,15 +2334,15 @@
         <v>100072</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E71" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>100407</v>
@@ -2345,15 +2351,15 @@
         <v>101351</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E72" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>100126</v>
@@ -2362,15 +2368,15 @@
         <v>100447</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E73" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>100020</v>
@@ -2379,15 +2385,15 @@
         <v>100050</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E74" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>100003</v>
@@ -2396,15 +2402,15 @@
         <v>100002</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>100109</v>
@@ -2413,15 +2419,15 @@
         <v>100131</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E76" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>100214</v>
@@ -2430,15 +2436,15 @@
         <v>100305</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E77" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>100222</v>
@@ -2447,15 +2453,15 @@
         <v>100129</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E78" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>100508</v>
@@ -2464,15 +2470,15 @@
         <v>100222</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E79" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>100649</v>
@@ -2481,15 +2487,15 @@
         <v>100007</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E80" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>100301</v>
@@ -2498,15 +2504,15 @@
         <v>100008</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E81" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>100265</v>
@@ -2515,15 +2521,15 @@
         <v>100272</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E82" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>101511</v>
@@ -2532,15 +2538,15 @@
         <v>100164</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E83" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>100316</v>
@@ -2549,15 +2555,15 @@
         <v>100176</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E84" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>101820</v>
@@ -2566,15 +2572,15 @@
         <v>100330</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E85" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>101276</v>
@@ -2583,15 +2589,15 @@
         <v>100134</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E86" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>100359</v>
@@ -2600,15 +2606,15 @@
         <v>100024</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>100994</v>
@@ -2617,15 +2623,15 @@
         <v>100653</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E88" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>101451</v>
@@ -2634,21 +2640,21 @@
         <v>101014</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E89" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>102184</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
@@ -2656,13 +2662,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>100992</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
@@ -2670,7 +2676,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>100501</v>
@@ -2679,15 +2685,15 @@
         <v>100494</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E92" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>100661</v>
@@ -2696,15 +2702,15 @@
         <v>100117</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E93" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>100170</v>
@@ -2713,15 +2719,15 @@
         <v>100184</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E94" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>100069</v>
@@ -2730,15 +2736,15 @@
         <v>100009</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E95" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>100028</v>
@@ -2747,21 +2753,21 @@
         <v>100001</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E96" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>101285</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
@@ -2769,13 +2775,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>101155</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
@@ -2783,13 +2789,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>100326</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>101244</v>
@@ -2806,15 +2812,15 @@
         <v>101145</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E100" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>100280</v>
@@ -2824,15 +2830,15 @@
         <v>#N/A</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E101" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>100235</v>
@@ -2841,15 +2847,15 @@
         <v>100419</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E102" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>100644</v>
@@ -2858,15 +2864,15 @@
         <v>100003</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E103" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>100963</v>
@@ -2875,15 +2881,15 @@
         <v>101673</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E104" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>100158</v>
@@ -2892,21 +2898,21 @@
         <v>102651</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E105" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>102268</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>100071</v>
@@ -2923,15 +2929,15 @@
         <v>100095</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E107" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>100036</v>
@@ -2940,15 +2946,15 @@
         <v>100059</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E108" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>100090</v>
@@ -2957,15 +2963,15 @@
         <v>100054</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E109" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>100148</v>
@@ -2974,15 +2980,15 @@
         <v>100090</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E110" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>100046</v>
@@ -2991,15 +2997,15 @@
         <v>100043</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E111" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>100007</v>
@@ -3008,15 +3014,15 @@
         <v>100008</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E112" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>100279</v>
@@ -3025,15 +3031,15 @@
         <v>100157</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E113" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>100024</v>
@@ -3042,15 +3048,15 @@
         <v>100010</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E114" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>100042</v>
@@ -3059,15 +3065,15 @@
         <v>100014</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E115" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>100578</v>
@@ -3076,15 +3082,15 @@
         <v>100279</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E116" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>100061</v>
@@ -3093,15 +3099,15 @@
         <v>100024</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E117" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>100196</v>
@@ -3110,15 +3116,15 @@
         <v>100042</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E118" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>100143</v>
@@ -3127,15 +3133,15 @@
         <v>100024</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E119" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>100117</v>
@@ -3144,15 +3150,15 @@
         <v>100202</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E120" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>100178</v>
@@ -3161,21 +3167,21 @@
         <v>100932</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E121" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>101130</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
@@ -3183,7 +3189,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>100125</v>
@@ -3192,15 +3198,15 @@
         <v>100072</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E123" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>100407</v>
@@ -3209,15 +3215,15 @@
         <v>100970</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E124" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>100126</v>
@@ -3226,15 +3232,15 @@
         <v>100356</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E125" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>100020</v>
@@ -3243,15 +3249,15 @@
         <v>100035</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E126" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>100003</v>
@@ -3260,15 +3266,15 @@
         <v>100018</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E127" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>100109</v>
@@ -3277,15 +3283,15 @@
         <v>100131</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E128" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>100214</v>
@@ -3294,15 +3300,15 @@
         <v>100305</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E129" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>100222</v>
@@ -3311,15 +3317,15 @@
         <v>100129</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E130" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>100508</v>
@@ -3328,15 +3334,15 @@
         <v>100222</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E131" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>100649</v>
@@ -3345,15 +3351,15 @@
         <v>100007</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E132" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>100301</v>
@@ -3362,15 +3368,15 @@
         <v>100008</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E133" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>100265</v>
@@ -3379,15 +3385,15 @@
         <v>100272</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E134" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>101511</v>
@@ -3396,15 +3402,15 @@
         <v>100164</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E135" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>100316</v>
@@ -3413,15 +3419,15 @@
         <v>100176</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E136" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>101820</v>
@@ -3430,15 +3436,15 @@
         <v>100330</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E137" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>101276</v>
@@ -3447,15 +3453,15 @@
         <v>100134</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E138" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>100359</v>
@@ -3464,15 +3470,15 @@
         <v>100024</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E139" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>100994</v>
@@ -3481,15 +3487,15 @@
         <v>100653</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E140" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>101451</v>
@@ -3498,21 +3504,21 @@
         <v>101014</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E141" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>102184</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
@@ -3520,13 +3526,13 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>100992</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>100501</v>
@@ -3543,15 +3549,15 @@
         <v>100494</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E144" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>100661</v>
@@ -3560,15 +3566,15 @@
         <v>100117</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E145" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>100170</v>
@@ -3577,15 +3583,15 @@
         <v>100184</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E146" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>100069</v>
@@ -3594,15 +3600,15 @@
         <v>100009</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E147" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>100028</v>
@@ -3611,21 +3617,21 @@
         <v>100001</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E148" s="14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>101285</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
@@ -3633,13 +3639,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>101155</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
@@ -3647,13 +3653,13 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>100326</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
@@ -3661,7 +3667,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>101244</v>
@@ -3670,15 +3676,15 @@
         <v>101145</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E152" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>100280</v>
@@ -3687,15 +3693,15 @@
         <v>100258</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E153" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>100235</v>
@@ -3704,15 +3710,15 @@
         <v>100550</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E154" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>100644</v>
@@ -3721,15 +3727,15 @@
         <v>100003</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E155" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>100963</v>
@@ -3738,15 +3744,15 @@
         <v>101673</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E156" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>100158</v>
@@ -3755,21 +3761,21 @@
         <v>102651</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E157" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>102268</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>100071</v>
@@ -3786,10 +3792,10 @@
         <v>100095</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="E159" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3814,19 +3820,19 @@
   </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A171" activeCellId="0" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -3843,39 +3849,39 @@
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>26</v>
+      <c r="A4" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100036</v>
@@ -3895,7 +3901,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>100090</v>
@@ -3915,7 +3921,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100148</v>
@@ -3935,7 +3941,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>100046</v>
@@ -3955,7 +3961,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>100007</v>
@@ -3975,7 +3981,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>100704</v>
@@ -3992,7 +3998,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>100279</v>
@@ -4012,7 +4018,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>100024</v>
@@ -4032,7 +4038,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>100042</v>
@@ -4052,7 +4058,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>100578</v>
@@ -4072,7 +4078,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>100061</v>
@@ -4092,7 +4098,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>100196</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>100143</v>
@@ -4132,7 +4138,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>100117</v>
@@ -4152,7 +4158,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>100178</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>101130</v>
@@ -4189,7 +4195,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>100125</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>100407</v>
@@ -4229,7 +4235,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>100126</v>
@@ -4249,7 +4255,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>100020</v>
@@ -4269,7 +4275,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>100003</v>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>100109</v>
@@ -4309,7 +4315,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>100214</v>
@@ -4329,7 +4335,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>100222</v>
@@ -4349,7 +4355,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>100508</v>
@@ -4369,7 +4375,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>100649</v>
@@ -4389,7 +4395,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>101900</v>
@@ -4400,7 +4406,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>100301</v>
@@ -4420,7 +4426,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>100265</v>
@@ -4440,7 +4446,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>101511</v>
@@ -4460,7 +4466,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>100316</v>
@@ -4480,7 +4486,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>101820</v>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>101276</v>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>100359</v>
@@ -4540,7 +4546,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>100994</v>
@@ -4560,7 +4566,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>101451</v>
@@ -4580,7 +4586,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>102184</v>
@@ -4597,7 +4603,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>100992</v>
@@ -4614,7 +4620,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>100424</v>
@@ -4625,7 +4631,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>100501</v>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>100661</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>100170</v>
@@ -4685,7 +4691,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>100069</v>
@@ -4705,7 +4711,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>100028</v>
@@ -4725,7 +4731,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>101285</v>
@@ -4742,7 +4748,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>101155</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>100326</v>
@@ -4779,7 +4785,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>101244</v>
@@ -4799,7 +4805,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>100280</v>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>100235</v>
@@ -4839,7 +4845,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>100644</v>
@@ -4859,7 +4865,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>100963</v>
@@ -4879,7 +4885,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>100158</v>
@@ -4899,7 +4905,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>102268</v>
@@ -4916,7 +4922,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>100071</v>
@@ -4936,7 +4942,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>101108</v>
@@ -4944,7 +4950,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>100036</v>
@@ -4964,7 +4970,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>100090</v>
@@ -4984,7 +4990,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>100148</v>
@@ -5004,7 +5010,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>100046</v>
@@ -5024,7 +5030,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>100007</v>
@@ -5044,7 +5050,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>100704</v>
@@ -5061,7 +5067,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>100279</v>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>100024</v>
@@ -5101,7 +5107,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>100042</v>
@@ -5121,7 +5127,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>100578</v>
@@ -5141,7 +5147,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>100061</v>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>100196</v>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>100143</v>
@@ -5201,7 +5207,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>100117</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>100178</v>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>101130</v>
@@ -5258,7 +5264,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>100125</v>
@@ -5278,7 +5284,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>100407</v>
@@ -5298,7 +5304,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>100126</v>
@@ -5318,7 +5324,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>100020</v>
@@ -5338,7 +5344,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>100003</v>
@@ -5358,7 +5364,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>100109</v>
@@ -5378,7 +5384,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>100214</v>
@@ -5398,7 +5404,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>100222</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>100508</v>
@@ -5438,7 +5444,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>100649</v>
@@ -5458,7 +5464,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>101900</v>
@@ -5469,7 +5475,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>100301</v>
@@ -5489,7 +5495,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>100265</v>
@@ -5509,7 +5515,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>101511</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>100316</v>
@@ -5549,7 +5555,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>101820</v>
@@ -5569,7 +5575,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>101276</v>
@@ -5589,7 +5595,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>100359</v>
@@ -5609,7 +5615,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>100994</v>
@@ -5629,7 +5635,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>101451</v>
@@ -5649,7 +5655,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>102184</v>
@@ -5666,7 +5672,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>100992</v>
@@ -5683,7 +5689,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>100424</v>
@@ -5694,7 +5700,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>100501</v>
@@ -5714,7 +5720,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>100661</v>
@@ -5734,7 +5740,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>100170</v>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>100069</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>100028</v>
@@ -5794,7 +5800,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>101285</v>
@@ -5811,7 +5817,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>101155</v>
@@ -5828,7 +5834,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>100326</v>
@@ -5848,7 +5854,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>101244</v>
@@ -5868,7 +5874,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>100280</v>
@@ -5889,7 +5895,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>100235</v>
@@ -5909,7 +5915,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>100644</v>
@@ -5929,7 +5935,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>100963</v>
@@ -5949,7 +5955,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>100158</v>
@@ -5969,7 +5975,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>102268</v>
@@ -5986,7 +5992,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>100071</v>
@@ -6006,7 +6012,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>101108</v>
@@ -6014,7 +6020,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>100036</v>
@@ -6034,7 +6040,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>100090</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>100148</v>
@@ -6074,7 +6080,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>100046</v>
@@ -6094,7 +6100,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>100007</v>
@@ -6114,7 +6120,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>100704</v>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>100279</v>
@@ -6151,7 +6157,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>100024</v>
@@ -6171,7 +6177,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>100042</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>100578</v>
@@ -6211,7 +6217,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>100061</v>
@@ -6231,7 +6237,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>100196</v>
@@ -6251,7 +6257,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>100143</v>
@@ -6271,7 +6277,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>100117</v>
@@ -6291,7 +6297,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>100178</v>
@@ -6311,7 +6317,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>101130</v>
@@ -6328,7 +6334,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>100125</v>
@@ -6348,7 +6354,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>100407</v>
@@ -6368,7 +6374,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>100126</v>
@@ -6388,7 +6394,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>100020</v>
@@ -6408,7 +6414,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>100003</v>
@@ -6428,7 +6434,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>100109</v>
@@ -6448,7 +6454,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>100214</v>
@@ -6468,7 +6474,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>100222</v>
@@ -6488,7 +6494,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>100508</v>
@@ -6508,7 +6514,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>100649</v>
@@ -6528,7 +6534,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>101900</v>
@@ -6539,7 +6545,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>100301</v>
@@ -6559,7 +6565,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>100265</v>
@@ -6579,7 +6585,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>101511</v>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>100316</v>
@@ -6619,7 +6625,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>101820</v>
@@ -6639,7 +6645,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>101276</v>
@@ -6659,7 +6665,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>100359</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>100994</v>
@@ -6699,7 +6705,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>101451</v>
@@ -6719,7 +6725,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>102184</v>
@@ -6736,7 +6742,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>100992</v>
@@ -6753,7 +6759,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>100424</v>
@@ -6764,7 +6770,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>100501</v>
@@ -6784,7 +6790,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>100661</v>
@@ -6804,7 +6810,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>100170</v>
@@ -6824,7 +6830,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>100069</v>
@@ -6844,7 +6850,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>100028</v>
@@ -6864,7 +6870,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>101285</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>101155</v>
@@ -6898,7 +6904,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>100326</v>
@@ -6918,7 +6924,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>101244</v>
@@ -6938,7 +6944,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>100280</v>
@@ -6958,7 +6964,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>100235</v>
@@ -6978,7 +6984,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>100644</v>
@@ -6998,7 +7004,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>100963</v>
@@ -7018,7 +7024,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>100158</v>
@@ -7038,7 +7044,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>102268</v>
@@ -7055,7 +7061,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>100071</v>
@@ -7075,7 +7081,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>101108</v>
@@ -7101,49 +7107,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7164,14 +7202,14 @@
   </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -7182,15 +7220,15 @@
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,78 +7699,78 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
+      <c r="A4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>47</v>
+      <c r="A5" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
+      <c r="A6" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
+      <c r="A10" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7754,195 +7792,195 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" s="20" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+    <row r="1" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" s="22" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="B8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="B10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="B11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="C11" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C12" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="D12" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="B13" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="C13" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="21" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" s="21" t="n">
+      <c r="D14" s="23" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Projects/DIAGEOUS_SAND/Data/Template.xlsx
+++ b/Projects/DIAGEOUS_SAND/Data/Template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="64">
   <si>
     <t>KPI Name</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Store Score</t>
   </si>
   <si>
-    <t>1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf, 1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Barrel Display, 6. Lock Box Display</t>
+    <t>1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf, 1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Barrel Display, 6. Lock Box Display, 1. Spirits Main Shelf - OLD, 3. Spirits Behind the Counter Shelf - OLD</t>
   </si>
   <si>
     <t>Proportional</t>
@@ -73,7 +73,7 @@
     <t>Display Brand</t>
   </si>
   <si>
-    <t>1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Barrel Display, 6. Lock Box Display</t>
+    <t>1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Barrel Display, 6. Lock Box Display, 2. Spirits Displays - OLD</t>
   </si>
   <si>
     <t>Display Share</t>
@@ -82,7 +82,7 @@
     <t>Shelf Facings</t>
   </si>
   <si>
-    <t>1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf</t>
+    <t>1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf, 1. Spirits Main Shelf - OLD, 3. Spirits Behind the Counter Shelf - OLD</t>
   </si>
   <si>
     <t>Shelf Placement</t>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>E, T, R, K, TT, B</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
   <si>
     <t>Shelf Name</t>
@@ -549,15 +552,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>417600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
+      <xdr:colOff>283680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
+      <xdr:rowOff>365400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -570,8 +573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390600" y="7200"/>
-          <a:ext cx="1752120" cy="358560"/>
+          <a:off x="417600" y="7200"/>
+          <a:ext cx="1761480" cy="358200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,15 +589,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>493200</xdr:colOff>
+      <xdr:colOff>520200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1536480</xdr:colOff>
+      <xdr:colOff>1563120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330480</xdr:rowOff>
+      <xdr:rowOff>330120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -607,8 +610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2378880" y="5040"/>
-          <a:ext cx="1043280" cy="325440"/>
+          <a:off x="2415600" y="5040"/>
+          <a:ext cx="1042920" cy="325080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,13 +626,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>362880</xdr:colOff>
+      <xdr:colOff>389880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>362880</xdr:colOff>
+      <xdr:colOff>389880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -640,7 +643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2248560" y="2880"/>
+          <a:off x="2285280" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -675,15 +678,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>417600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
+      <xdr:rowOff>365400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -696,8 +699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390600" y="7200"/>
-          <a:ext cx="1792440" cy="358560"/>
+          <a:off x="417600" y="7200"/>
+          <a:ext cx="1801800" cy="358200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,15 +715,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1563480</xdr:colOff>
+      <xdr:colOff>1590120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330480</xdr:rowOff>
+      <xdr:rowOff>330120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -733,8 +736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2421000" y="5040"/>
-          <a:ext cx="1237680" cy="325440"/>
+          <a:off x="2457720" y="5040"/>
+          <a:ext cx="1237320" cy="325080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -749,13 +752,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -766,7 +769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2283120" y="2880"/>
+          <a:off x="2319840" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -801,15 +804,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>417600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2154600</xdr:colOff>
+      <xdr:colOff>2181240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
+      <xdr:rowOff>365400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -822,8 +825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390600" y="7200"/>
-          <a:ext cx="1764000" cy="358560"/>
+          <a:off x="417600" y="7200"/>
+          <a:ext cx="1763640" cy="358200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -838,15 +841,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2384280</xdr:colOff>
+      <xdr:colOff>2411280</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1012320</xdr:colOff>
+      <xdr:colOff>1038960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330480</xdr:rowOff>
+      <xdr:rowOff>330120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -859,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2384280" y="5040"/>
-          <a:ext cx="1314000" cy="325440"/>
+          <a:off x="2411280" y="5040"/>
+          <a:ext cx="1332720" cy="325080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,13 +878,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2246400</xdr:colOff>
+      <xdr:colOff>2273400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2246400</xdr:colOff>
+      <xdr:colOff>2273400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -892,7 +895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2246400" y="2880"/>
+          <a:off x="2273400" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -930,15 +933,15 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="110.696356275304"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.619433198381"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -1158,19 +1161,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K167" activeCellId="0" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2823,11 +2826,10 @@
         <v>30</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>100280</v>
-      </c>
-      <c r="C101" s="0" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
+        <v>100235</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>100419</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>28</v>
@@ -2841,10 +2843,10 @@
         <v>30</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>100235</v>
+        <v>100644</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>100419</v>
+        <v>100003</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>28</v>
@@ -2858,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>100644</v>
+        <v>100963</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>100003</v>
+        <v>101673</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>28</v>
@@ -2875,10 +2877,10 @@
         <v>30</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>100963</v>
+        <v>100158</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>101673</v>
+        <v>102651</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>28</v>
@@ -2892,15 +2894,12 @@
         <v>30</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>100158</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>102651</v>
+        <v>102268</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2909,24 +2908,27 @@
         <v>30</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>102268</v>
+        <v>100071</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>100095</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E106" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>100071</v>
+        <v>100036</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>100095</v>
+        <v>100059</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>28</v>
@@ -2940,10 +2942,10 @@
         <v>31</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>100036</v>
+        <v>100090</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>100059</v>
+        <v>100054</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>28</v>
@@ -2957,10 +2959,10 @@
         <v>31</v>
       </c>
       <c r="B109" s="0" t="n">
+        <v>100148</v>
+      </c>
+      <c r="C109" s="0" t="n">
         <v>100090</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>100054</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>28</v>
@@ -2974,10 +2976,10 @@
         <v>31</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>100148</v>
+        <v>100046</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>100090</v>
+        <v>100043</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>28</v>
@@ -2991,10 +2993,10 @@
         <v>31</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>100046</v>
+        <v>100007</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>100043</v>
+        <v>100008</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>28</v>
@@ -3008,10 +3010,10 @@
         <v>31</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>100007</v>
+        <v>100279</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>100008</v>
+        <v>100157</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>28</v>
@@ -3025,10 +3027,10 @@
         <v>31</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>100279</v>
+        <v>100024</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>100157</v>
+        <v>100010</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>28</v>
@@ -3042,10 +3044,10 @@
         <v>31</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>100024</v>
+        <v>100042</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>100010</v>
+        <v>100014</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>28</v>
@@ -3059,10 +3061,10 @@
         <v>31</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>100042</v>
+        <v>100578</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>100014</v>
+        <v>100279</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>28</v>
@@ -3076,16 +3078,16 @@
         <v>31</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>100578</v>
+        <v>100061</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>100279</v>
+        <v>100024</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E116" s="14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,10 +3095,10 @@
         <v>31</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>100061</v>
+        <v>100196</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>100024</v>
+        <v>100042</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>28</v>
@@ -3110,16 +3112,16 @@
         <v>31</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>100196</v>
+        <v>100143</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>100042</v>
+        <v>100024</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E118" s="14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3129,10 @@
         <v>31</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>100143</v>
+        <v>100117</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>100024</v>
+        <v>100202</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>28</v>
@@ -3144,10 +3146,10 @@
         <v>31</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>100117</v>
+        <v>100178</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>100202</v>
+        <v>100932</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>28</v>
@@ -3161,15 +3163,12 @@
         <v>31</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>100178</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>100932</v>
+        <v>101130</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,12 +3177,15 @@
         <v>31</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>101130</v>
+        <v>100125</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>100072</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E122" s="14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,10 +3194,10 @@
         <v>31</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>100125</v>
+        <v>100407</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>100072</v>
+        <v>100970</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>28</v>
@@ -3209,10 +3211,10 @@
         <v>31</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>100407</v>
+        <v>100126</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>100970</v>
+        <v>100356</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>28</v>
@@ -3226,10 +3228,10 @@
         <v>31</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>100126</v>
+        <v>100020</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>100356</v>
+        <v>100035</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>28</v>
@@ -3243,10 +3245,10 @@
         <v>31</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>100020</v>
+        <v>100003</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>100035</v>
+        <v>100018</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>28</v>
@@ -3260,10 +3262,10 @@
         <v>31</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>100003</v>
+        <v>100109</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>100018</v>
+        <v>100131</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>28</v>
@@ -3277,10 +3279,10 @@
         <v>31</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>100109</v>
+        <v>100214</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>100131</v>
+        <v>100305</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>28</v>
@@ -3294,10 +3296,10 @@
         <v>31</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>100214</v>
+        <v>100222</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>100305</v>
+        <v>100129</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>28</v>
@@ -3311,16 +3313,16 @@
         <v>31</v>
       </c>
       <c r="B130" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C130" s="0" t="n">
         <v>100222</v>
       </c>
-      <c r="C130" s="0" t="n">
-        <v>100129</v>
-      </c>
       <c r="D130" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E130" s="14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,16 +3330,16 @@
         <v>31</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>100508</v>
+        <v>100649</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>100222</v>
+        <v>100007</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E131" s="14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3347,10 @@
         <v>31</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>100649</v>
+        <v>100301</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>100007</v>
+        <v>100008</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>28</v>
@@ -3362,10 +3364,10 @@
         <v>31</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>100301</v>
+        <v>100265</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>100008</v>
+        <v>100272</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>28</v>
@@ -3379,10 +3381,10 @@
         <v>31</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>100265</v>
+        <v>101511</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>100272</v>
+        <v>100164</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>28</v>
@@ -3396,10 +3398,10 @@
         <v>31</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>101511</v>
+        <v>100316</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>100164</v>
+        <v>100176</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>28</v>
@@ -3413,10 +3415,10 @@
         <v>31</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>100316</v>
+        <v>101820</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>100176</v>
+        <v>100330</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>28</v>
@@ -3430,16 +3432,16 @@
         <v>31</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>101820</v>
+        <v>101276</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>100330</v>
+        <v>100134</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E137" s="14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,16 +3449,16 @@
         <v>31</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>101276</v>
+        <v>100359</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100134</v>
+        <v>100024</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E138" s="14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,10 +3466,10 @@
         <v>31</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>100359</v>
+        <v>100994</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>100024</v>
+        <v>100653</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>28</v>
@@ -3481,10 +3483,10 @@
         <v>31</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>100994</v>
+        <v>101451</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>100653</v>
+        <v>101014</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>28</v>
@@ -3498,15 +3500,12 @@
         <v>31</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>101451</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>101014</v>
+        <v>102184</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,7 +3514,7 @@
         <v>31</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>102184</v>
+        <v>100992</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>29</v>
@@ -3529,12 +3528,15 @@
         <v>31</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>100992</v>
+        <v>100501</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>100494</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E143" s="14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,10 +3545,10 @@
         <v>31</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>100501</v>
+        <v>100661</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>100494</v>
+        <v>100117</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>28</v>
@@ -3560,10 +3562,10 @@
         <v>31</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>100661</v>
+        <v>100170</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>100117</v>
+        <v>100184</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>28</v>
@@ -3577,16 +3579,16 @@
         <v>31</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>100170</v>
+        <v>100069</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>100184</v>
+        <v>100009</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E146" s="14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,10 +3596,10 @@
         <v>31</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>100069</v>
+        <v>100028</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>100009</v>
+        <v>100001</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>28</v>
@@ -3611,16 +3613,13 @@
         <v>31</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>100028</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>100001</v>
+        <v>101285</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="14" t="n">
-        <v>0.5</v>
+        <v>29</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +3627,7 @@
         <v>31</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>101285</v>
+        <v>101155</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>29</v>
@@ -3642,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>101155</v>
+        <v>100326</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>29</v>
@@ -3656,12 +3655,15 @@
         <v>31</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>100326</v>
+        <v>101244</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>101145</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E151" s="14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,10 +3672,10 @@
         <v>31</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>101244</v>
+        <v>100280</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>101145</v>
+        <v>100258</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>28</v>
@@ -3687,10 +3689,10 @@
         <v>31</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>100280</v>
+        <v>100235</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>100258</v>
+        <v>100550</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>28</v>
@@ -3704,10 +3706,10 @@
         <v>31</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>100235</v>
+        <v>100644</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>100550</v>
+        <v>100003</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>28</v>
@@ -3721,10 +3723,10 @@
         <v>31</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>100644</v>
+        <v>100963</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>100003</v>
+        <v>101673</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>28</v>
@@ -3738,10 +3740,10 @@
         <v>31</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>100963</v>
+        <v>100158</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>101673</v>
+        <v>102651</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>28</v>
@@ -3755,15 +3757,12 @@
         <v>31</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>100158</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>102651</v>
+        <v>102268</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,32 +3771,19 @@
         <v>31</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>102268</v>
+        <v>100071</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>100095</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B159" s="0" t="n">
-        <v>100071</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>100095</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>28</v>
+      </c>
+      <c r="E158" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
@@ -3820,19 +3806,19 @@
   </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A171" activeCellId="0" sqref="A171"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -3984,13 +3970,16 @@
         <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>100704</v>
+        <v>100279</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100157</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
@@ -4001,16 +3990,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>100279</v>
+        <v>100024</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100157</v>
+        <v>100010</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0</v>
@@ -4021,16 +4010,16 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>100024</v>
+        <v>100042</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>100010</v>
+        <v>100014</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
@@ -4041,16 +4030,16 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>100042</v>
+        <v>100578</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100014</v>
+        <v>100279</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0</v>
@@ -4061,10 +4050,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>100578</v>
+        <v>100061</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>100279</v>
+        <v>100024</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -4081,10 +4070,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>100061</v>
+        <v>100196</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>100024</v>
+        <v>100042</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -4101,10 +4090,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>100196</v>
+        <v>100143</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>100042</v>
+        <v>100024</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -4121,16 +4110,16 @@
         <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>100143</v>
+        <v>100117</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>100024</v>
+        <v>100202</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>
@@ -4141,16 +4130,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>100117</v>
+        <v>100178</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>100202</v>
+        <v>100932</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
@@ -4161,19 +4150,19 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>100178</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>100932</v>
+        <v>101130</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-12</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>199.99</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>229.99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,16 +4170,19 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>101130</v>
+        <v>100125</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>100072</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>199.99</v>
-      </c>
       <c r="G19" s="0" t="n">
-        <v>229.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,16 +4190,16 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>100125</v>
+        <v>100407</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>100072</v>
+        <v>100970</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0</v>
@@ -4218,16 +4210,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>100407</v>
+        <v>100126</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>100970</v>
+        <v>100356</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
@@ -4238,10 +4230,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>100126</v>
+        <v>100020</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>100356</v>
+        <v>100035</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -4258,10 +4250,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>100020</v>
+        <v>100003</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>100035</v>
+        <v>100018</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -4278,16 +4270,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>100003</v>
+        <v>100109</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>100018</v>
+        <v>100131</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
@@ -4298,16 +4290,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>100109</v>
+        <v>100214</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>100131</v>
+        <v>100305</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>0</v>
@@ -4318,16 +4310,16 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>100214</v>
+        <v>100222</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>100305</v>
+        <v>100129</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0</v>
@@ -4338,16 +4330,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
+        <v>100508</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>100222</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>100129</v>
-      </c>
       <c r="D27" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0</v>
@@ -4358,16 +4350,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>100508</v>
+        <v>100649</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100222</v>
+        <v>100007</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0</v>
@@ -4378,16 +4370,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>100649</v>
+        <v>100301</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>100007</v>
+        <v>100008</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0</v>
@@ -4398,10 +4390,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>101900</v>
+        <v>100265</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>100278</v>
+        <v>100272</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,16 +4410,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>100301</v>
+        <v>101511</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>100008</v>
+        <v>100164</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0</v>
@@ -4429,16 +4430,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>100265</v>
+        <v>100316</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>100272</v>
+        <v>100176</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0</v>
@@ -4449,10 +4450,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>101511</v>
+        <v>101820</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100164</v>
+        <v>100330</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
@@ -4469,16 +4470,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>100316</v>
+        <v>101276</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>100176</v>
+        <v>100134</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
@@ -4489,16 +4490,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>101820</v>
+        <v>100359</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>100330</v>
+        <v>100024</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>0</v>
@@ -4509,16 +4510,16 @@
         <v>27</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>101276</v>
+        <v>100994</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>100134</v>
+        <v>100653</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0</v>
@@ -4529,16 +4530,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>100359</v>
+        <v>101451</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>100024</v>
+        <v>101014</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>0</v>
@@ -4549,19 +4550,19 @@
         <v>27</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>100994</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>100653</v>
+        <v>102184</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>59.99</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,10 +4570,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>101451</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>101014</v>
+        <v>100992</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
@@ -4580,8 +4578,11 @@
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F39" s="0" t="n">
+        <v>119.99</v>
+      </c>
       <c r="G39" s="0" t="n">
-        <v>0</v>
+        <v>139.99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,16 +4590,19 @@
         <v>27</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>102184</v>
+        <v>100501</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>100494</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>59.99</v>
+        <v>1</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>69.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,16 +4610,19 @@
         <v>27</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>100992</v>
+        <v>100661</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>100117</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>119.99</v>
+        <v>7</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>139.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,10 +4630,19 @@
         <v>27</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>100424</v>
+        <v>100170</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100082</v>
+        <v>100184</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,16 +4650,16 @@
         <v>27</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>100501</v>
+        <v>100069</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>100494</v>
+        <v>100009</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>0</v>
@@ -4654,16 +4670,16 @@
         <v>27</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>100661</v>
+        <v>100028</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>100117</v>
+        <v>100001</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>7</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>0</v>
@@ -4674,10 +4690,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>100170</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>100184</v>
+        <v>101285</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
@@ -4685,8 +4698,11 @@
       <c r="E45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F45" s="0" t="n">
+        <v>79.99</v>
+      </c>
       <c r="G45" s="0" t="n">
-        <v>0</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,19 +4710,19 @@
         <v>27</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>100069</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>100009</v>
+        <v>101155</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>69.99</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,19 +4730,19 @@
         <v>27</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>100028</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>100001</v>
+        <v>100326</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>4.49</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,16 +4750,19 @@
         <v>27</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>101285</v>
+        <v>101244</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>101145</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>79.99</v>
-      </c>
       <c r="G48" s="0" t="n">
-        <v>89.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,16 +4770,19 @@
         <v>27</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>101155</v>
+        <v>100280</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>100258</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="0" t="n">
-        <v>69.99</v>
-      </c>
       <c r="G49" s="0" t="n">
-        <v>79.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,19 +4790,19 @@
         <v>27</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>100326</v>
+        <v>100235</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>100550</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>4.49</v>
+        <v>1</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,16 +4810,16 @@
         <v>27</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>101244</v>
+        <v>100644</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>101145</v>
+        <v>100003</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>0</v>
@@ -4808,10 +4830,10 @@
         <v>27</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>100280</v>
+        <v>100963</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>100258</v>
+        <v>101673</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0</v>
@@ -4828,16 +4850,16 @@
         <v>27</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>100235</v>
+        <v>100158</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>100550</v>
+        <v>102651</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -4848,19 +4870,19 @@
         <v>27</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>100644</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>100003</v>
+        <v>102268</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>49.99</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,13 +4890,13 @@
         <v>27</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>100963</v>
+        <v>100071</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>101673</v>
+        <v>100095</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0</v>
@@ -4885,19 +4907,19 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>100158</v>
+        <v>100036</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>102651</v>
+        <v>100059</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
@@ -4905,33 +4927,36 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>102268</v>
+        <v>100090</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>100054</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>49.99</v>
+        <v>1</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>59.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>100071</v>
+        <v>100148</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>100095</v>
+        <v>100090</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>0</v>
@@ -4942,10 +4967,22 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>101108</v>
+        <v>100046</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>100043</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,16 +4990,16 @@
         <v>30</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>100036</v>
+        <v>100007</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>100059</v>
+        <v>100008</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>0</v>
@@ -4973,16 +5010,16 @@
         <v>30</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>100090</v>
+        <v>100279</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>100054</v>
+        <v>100157</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>0</v>
@@ -4993,16 +5030,16 @@
         <v>30</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>100148</v>
+        <v>100024</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>100090</v>
+        <v>100010</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>0</v>
@@ -5013,16 +5050,16 @@
         <v>30</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>100046</v>
+        <v>100042</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>100043</v>
+        <v>100014</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>0</v>
@@ -5033,16 +5070,16 @@
         <v>30</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>100007</v>
+        <v>100578</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>100008</v>
+        <v>100279</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>0</v>
@@ -5053,7 +5090,10 @@
         <v>30</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>100704</v>
+        <v>100061</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>100024</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
@@ -5070,16 +5110,16 @@
         <v>30</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>100279</v>
+        <v>100196</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>100157</v>
+        <v>100042</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>0</v>
@@ -5090,16 +5130,16 @@
         <v>30</v>
       </c>
       <c r="B67" s="0" t="n">
+        <v>100143</v>
+      </c>
+      <c r="C67" s="0" t="n">
         <v>100024</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>100010</v>
-      </c>
       <c r="D67" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>0</v>
@@ -5110,16 +5150,16 @@
         <v>30</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>100042</v>
+        <v>100117</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>100014</v>
+        <v>100202</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>0</v>
@@ -5130,16 +5170,16 @@
         <v>30</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>100578</v>
+        <v>100178</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>100279</v>
+        <v>100932</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>0</v>
@@ -5150,10 +5190,7 @@
         <v>30</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>100061</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>100024</v>
+        <v>101130</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
@@ -5161,8 +5198,11 @@
       <c r="E70" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F70" s="0" t="n">
+        <v>199.99</v>
+      </c>
       <c r="G70" s="0" t="n">
-        <v>0</v>
+        <v>229.99</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,10 +5210,10 @@
         <v>30</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>100196</v>
+        <v>100125</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>100042</v>
+        <v>100072</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
@@ -5190,16 +5230,16 @@
         <v>30</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>100143</v>
+        <v>100407</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>100024</v>
+        <v>101351</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>0</v>
@@ -5210,16 +5250,16 @@
         <v>30</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>100117</v>
+        <v>100126</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>100202</v>
+        <v>100447</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>0</v>
@@ -5230,16 +5270,16 @@
         <v>30</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>100178</v>
+        <v>100020</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>100932</v>
+        <v>100050</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>0</v>
@@ -5250,16 +5290,19 @@
         <v>30</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>101130</v>
+        <v>100003</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>100002</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>199.99</v>
+        <v>1</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>229.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,13 +5310,13 @@
         <v>30</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>100125</v>
+        <v>100109</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>100072</v>
+        <v>100131</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0</v>
@@ -5287,16 +5330,16 @@
         <v>30</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>100407</v>
+        <v>100214</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>101351</v>
+        <v>100305</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>0</v>
@@ -5307,13 +5350,13 @@
         <v>30</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>100126</v>
+        <v>100222</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>100447</v>
+        <v>100129</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
@@ -5327,16 +5370,16 @@
         <v>30</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>100020</v>
+        <v>100508</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>100050</v>
+        <v>100222</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>0</v>
@@ -5347,16 +5390,16 @@
         <v>30</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>100003</v>
+        <v>100649</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>100002</v>
+        <v>100007</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>0</v>
@@ -5367,16 +5410,16 @@
         <v>30</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>100109</v>
+        <v>100301</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>100131</v>
+        <v>100008</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>0</v>
@@ -5387,16 +5430,16 @@
         <v>30</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>100214</v>
+        <v>100265</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>100305</v>
+        <v>100272</v>
       </c>
       <c r="D82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>0</v>
@@ -5407,16 +5450,16 @@
         <v>30</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>100222</v>
+        <v>101511</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>100129</v>
+        <v>100164</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>0</v>
@@ -5427,10 +5470,10 @@
         <v>30</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>100508</v>
+        <v>100316</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>100222</v>
+        <v>100176</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
@@ -5447,16 +5490,16 @@
         <v>30</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>100649</v>
+        <v>101820</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>100007</v>
+        <v>100330</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>0</v>
@@ -5467,10 +5510,19 @@
         <v>30</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>101900</v>
+        <v>101276</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>100278</v>
+        <v>100134</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,16 +5530,16 @@
         <v>30</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>100301</v>
+        <v>100359</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>100008</v>
+        <v>100024</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>0</v>
@@ -5498,16 +5550,16 @@
         <v>30</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>100265</v>
+        <v>100994</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>100272</v>
+        <v>100653</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>0</v>
@@ -5518,10 +5570,10 @@
         <v>30</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>101511</v>
+        <v>101451</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>100164</v>
+        <v>101014</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0</v>
@@ -5538,10 +5590,7 @@
         <v>30</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>100316</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>100176</v>
+        <v>102184</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
@@ -5549,8 +5598,11 @@
       <c r="E90" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F90" s="0" t="n">
+        <v>59.99</v>
+      </c>
       <c r="G90" s="0" t="n">
-        <v>0</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,10 +5610,7 @@
         <v>30</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>101820</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>100330</v>
+        <v>100992</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0</v>
@@ -5569,8 +5618,11 @@
       <c r="E91" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F91" s="0" t="n">
+        <v>119.99</v>
+      </c>
       <c r="G91" s="0" t="n">
-        <v>0</v>
+        <v>139.99</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,10 +5630,10 @@
         <v>30</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>101276</v>
+        <v>100501</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>100134</v>
+        <v>100494</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>-1</v>
@@ -5598,16 +5650,16 @@
         <v>30</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>100359</v>
+        <v>100661</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>100024</v>
+        <v>100117</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>0</v>
@@ -5618,16 +5670,16 @@
         <v>30</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>100994</v>
+        <v>100170</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>100653</v>
+        <v>100184</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>0</v>
@@ -5638,16 +5690,16 @@
         <v>30</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>101451</v>
+        <v>100069</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>101014</v>
+        <v>100009</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>0</v>
@@ -5658,16 +5710,19 @@
         <v>30</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>102184</v>
+        <v>100028</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>100001</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>59.99</v>
+        <v>5</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>69.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,16 +5730,19 @@
         <v>30</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>100992</v>
+        <v>101285</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>119.99</v>
+        <v>79.99</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>139.99</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,10 +5750,19 @@
         <v>30</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>100424</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>100082</v>
+        <v>101155</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>69.99</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>79.99</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,19 +5770,19 @@
         <v>30</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>100501</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>100494</v>
+        <v>100326</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>4.49</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,16 +5790,16 @@
         <v>30</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>100661</v>
+        <v>101244</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>100117</v>
+        <v>101145</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>0</v>
@@ -5743,16 +5810,16 @@
         <v>30</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>100170</v>
+        <v>100235</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>100184</v>
+        <v>100419</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>0</v>
@@ -5763,16 +5830,16 @@
         <v>30</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>100069</v>
+        <v>100644</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>100009</v>
+        <v>100003</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>0</v>
@@ -5783,16 +5850,16 @@
         <v>30</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>100028</v>
+        <v>100963</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>100001</v>
+        <v>101673</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>0</v>
@@ -5803,16 +5870,19 @@
         <v>30</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>101285</v>
+        <v>100158</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>102651</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F104" s="0" t="n">
-        <v>79.99</v>
-      </c>
       <c r="G104" s="0" t="n">
-        <v>89.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,16 +5890,19 @@
         <v>30</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>101155</v>
+        <v>102268</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>69.99</v>
+        <v>49.99</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>79.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,36 +5910,36 @@
         <v>30</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>100326</v>
+        <v>100071</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>100095</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F106" s="0" t="n">
-        <v>4.49</v>
-      </c>
       <c r="G106" s="0" t="n">
-        <v>5.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>101244</v>
+        <v>100036</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>101145</v>
+        <v>100059</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>0</v>
@@ -5874,20 +5947,19 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>100280</v>
-      </c>
-      <c r="C108" s="0" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
+        <v>100090</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>100054</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>0</v>
@@ -5895,19 +5967,19 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>100235</v>
+        <v>100148</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>100419</v>
+        <v>100090</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>0</v>
@@ -5915,19 +5987,19 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>100644</v>
+        <v>100046</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>100003</v>
+        <v>100043</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>0</v>
@@ -5935,19 +6007,19 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>100963</v>
+        <v>100007</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>101673</v>
+        <v>100008</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>0</v>
@@ -5955,19 +6027,19 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>100158</v>
+        <v>100279</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>102651</v>
+        <v>100157</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>0</v>
@@ -5975,36 +6047,39 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>102268</v>
+        <v>100024</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>100010</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>49.99</v>
+        <v>4</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>59.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>100071</v>
+        <v>100042</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>100095</v>
+        <v>100014</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>0</v>
@@ -6012,10 +6087,22 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>101108</v>
+        <v>100578</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>100279</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,16 +6110,16 @@
         <v>31</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>100036</v>
+        <v>100061</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>100059</v>
+        <v>100024</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>0</v>
@@ -6043,16 +6130,16 @@
         <v>31</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>100090</v>
+        <v>100196</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>100054</v>
+        <v>100042</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>0</v>
@@ -6063,10 +6150,10 @@
         <v>31</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>100148</v>
+        <v>100143</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>100090</v>
+        <v>100024</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0</v>
@@ -6083,16 +6170,16 @@
         <v>31</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>100046</v>
+        <v>100117</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>100043</v>
+        <v>100202</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>0</v>
@@ -6103,16 +6190,16 @@
         <v>31</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>100007</v>
+        <v>100178</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>100008</v>
+        <v>100932</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>4</v>
+        <v>-18</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>6</v>
+        <v>-12</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>0</v>
@@ -6123,7 +6210,7 @@
         <v>31</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>100704</v>
+        <v>101130</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>0</v>
@@ -6131,8 +6218,11 @@
       <c r="E121" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F121" s="0" t="n">
+        <v>199.99</v>
+      </c>
       <c r="G121" s="0" t="n">
-        <v>0</v>
+        <v>229.99</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,16 +6230,16 @@
         <v>31</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>100279</v>
+        <v>100125</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>100157</v>
+        <v>100072</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>0</v>
@@ -6160,16 +6250,16 @@
         <v>31</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>100024</v>
+        <v>100407</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>100010</v>
+        <v>100970</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>0</v>
@@ -6180,16 +6270,16 @@
         <v>31</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>100042</v>
+        <v>100126</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>100014</v>
+        <v>100356</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>0</v>
@@ -6200,16 +6290,16 @@
         <v>31</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>100578</v>
+        <v>100020</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>100279</v>
+        <v>100035</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="0" t="n">
         <v>0</v>
@@ -6220,16 +6310,16 @@
         <v>31</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>100061</v>
+        <v>100003</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>100024</v>
+        <v>100018</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>0</v>
@@ -6240,13 +6330,13 @@
         <v>31</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>100196</v>
+        <v>100109</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>100042</v>
+        <v>100131</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>0</v>
@@ -6260,16 +6350,16 @@
         <v>31</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>100143</v>
+        <v>100214</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>100024</v>
+        <v>100305</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>0</v>
@@ -6280,16 +6370,16 @@
         <v>31</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>100117</v>
+        <v>100222</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>100202</v>
+        <v>100129</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>0</v>
@@ -6300,16 +6390,16 @@
         <v>31</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>100178</v>
+        <v>100508</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>100932</v>
+        <v>100222</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>0</v>
@@ -6320,16 +6410,19 @@
         <v>31</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>101130</v>
+        <v>100649</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>100007</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="0" t="n">
-        <v>199.99</v>
+        <v>6</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>229.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,16 +6430,16 @@
         <v>31</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>100125</v>
+        <v>100301</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>100072</v>
+        <v>100008</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>0</v>
@@ -6357,16 +6450,16 @@
         <v>31</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>100407</v>
+        <v>100265</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>100970</v>
+        <v>100272</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>0</v>
@@ -6377,16 +6470,16 @@
         <v>31</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>100126</v>
+        <v>101511</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>100356</v>
+        <v>100164</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>0</v>
@@ -6397,16 +6490,16 @@
         <v>31</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>100020</v>
+        <v>100316</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>100035</v>
+        <v>100176</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>0</v>
@@ -6417,16 +6510,16 @@
         <v>31</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>100003</v>
+        <v>101820</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>100018</v>
+        <v>100330</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>0</v>
@@ -6437,16 +6530,16 @@
         <v>31</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>100109</v>
+        <v>101276</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>100131</v>
+        <v>100134</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>0</v>
@@ -6457,16 +6550,16 @@
         <v>31</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>100214</v>
+        <v>100359</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100305</v>
+        <v>100024</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>0</v>
@@ -6477,16 +6570,16 @@
         <v>31</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>100222</v>
+        <v>100994</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>100129</v>
+        <v>100653</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>0</v>
@@ -6497,10 +6590,10 @@
         <v>31</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>100508</v>
+        <v>101451</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>100222</v>
+        <v>101014</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>0</v>
@@ -6517,19 +6610,19 @@
         <v>31</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>100649</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>100007</v>
+        <v>102184</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>59.99</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,10 +6630,19 @@
         <v>31</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>101900</v>
-      </c>
-      <c r="C142" s="0" t="n">
-        <v>100278</v>
+        <v>100992</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>139.99</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6548,16 +6650,16 @@
         <v>31</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>100301</v>
+        <v>100501</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>100008</v>
+        <v>100494</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>0</v>
@@ -6568,16 +6670,16 @@
         <v>31</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>100265</v>
+        <v>100661</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>100272</v>
+        <v>100117</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>0</v>
@@ -6588,10 +6690,10 @@
         <v>31</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>101511</v>
+        <v>100170</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>100164</v>
+        <v>100184</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>0</v>
@@ -6608,16 +6710,16 @@
         <v>31</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>100316</v>
+        <v>100069</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>100176</v>
+        <v>100009</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>0</v>
@@ -6628,16 +6730,16 @@
         <v>31</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>101820</v>
+        <v>100028</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>100330</v>
+        <v>100001</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>0</v>
@@ -6648,19 +6750,19 @@
         <v>31</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>101276</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>100134</v>
+        <v>101285</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>79.99</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,19 +6770,19 @@
         <v>31</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>100359</v>
-      </c>
-      <c r="C149" s="0" t="n">
-        <v>100024</v>
+        <v>101155</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>69.99</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>0</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,19 +6790,19 @@
         <v>31</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>100994</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>100653</v>
+        <v>100326</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>4.49</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,10 +6810,10 @@
         <v>31</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>101451</v>
+        <v>101244</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>101014</v>
+        <v>101145</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>0</v>
@@ -6728,16 +6830,19 @@
         <v>31</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>102184</v>
+        <v>100280</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>100258</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F152" s="0" t="n">
-        <v>59.99</v>
-      </c>
       <c r="G152" s="0" t="n">
-        <v>69.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,16 +6850,19 @@
         <v>31</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>100992</v>
+        <v>100235</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>100550</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" s="0" t="n">
-        <v>119.99</v>
+        <v>1</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>139.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,10 +6870,19 @@
         <v>31</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>100424</v>
+        <v>100644</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>100082</v>
+        <v>100003</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,16 +6890,16 @@
         <v>31</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>100501</v>
+        <v>100963</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>100494</v>
+        <v>101673</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>0</v>
@@ -6793,16 +6910,16 @@
         <v>31</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>100661</v>
+        <v>100158</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>100117</v>
+        <v>102651</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>0</v>
@@ -6813,10 +6930,7 @@
         <v>31</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>100170</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>100184</v>
+        <v>102268</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>0</v>
@@ -6824,8 +6938,11 @@
       <c r="E157" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F157" s="0" t="n">
+        <v>49.99</v>
+      </c>
       <c r="G157" s="0" t="n">
-        <v>0</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,259 +6950,59 @@
         <v>31</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>100069</v>
+        <v>100071</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>100009</v>
+        <v>100095</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B159" s="0" t="n">
-        <v>100028</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>100001</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B160" s="0" t="n">
-        <v>101285</v>
-      </c>
-      <c r="E160" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" s="0" t="n">
-        <v>79.99</v>
-      </c>
-      <c r="G160" s="0" t="n">
-        <v>89.99</v>
-      </c>
+      <c r="A160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B161" s="0" t="n">
-        <v>101155</v>
-      </c>
-      <c r="E161" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" s="0" t="n">
-        <v>69.99</v>
-      </c>
-      <c r="G161" s="0" t="n">
-        <v>79.99</v>
-      </c>
+      <c r="A161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B162" s="0" t="n">
-        <v>100326</v>
-      </c>
-      <c r="D162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" s="0" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>5.99</v>
-      </c>
+      <c r="A162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B163" s="0" t="n">
-        <v>101244</v>
-      </c>
-      <c r="C163" s="0" t="n">
-        <v>101145</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B164" s="0" t="n">
-        <v>100280</v>
-      </c>
-      <c r="C164" s="0" t="n">
-        <v>100258</v>
-      </c>
-      <c r="D164" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B165" s="0" t="n">
-        <v>100235</v>
-      </c>
-      <c r="C165" s="0" t="n">
-        <v>100550</v>
-      </c>
-      <c r="D165" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B166" s="0" t="n">
-        <v>100644</v>
-      </c>
-      <c r="C166" s="0" t="n">
-        <v>100003</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G166" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B167" s="0" t="n">
-        <v>100963</v>
-      </c>
-      <c r="C167" s="0" t="n">
-        <v>101673</v>
-      </c>
-      <c r="D167" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B168" s="0" t="n">
-        <v>100158</v>
-      </c>
-      <c r="C168" s="0" t="n">
-        <v>102651</v>
-      </c>
-      <c r="D168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B169" s="0" t="n">
-        <v>102268</v>
-      </c>
-      <c r="E169" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" s="0" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="G169" s="0" t="n">
-        <v>59.99</v>
-      </c>
+      <c r="A169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B170" s="0" t="n">
-        <v>100071</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>100095</v>
-      </c>
-      <c r="D170" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E170" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B171" s="0" t="n">
-        <v>101108</v>
-      </c>
+      <c r="A171" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7115,8 +7032,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -7202,14 +7119,14 @@
   </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L50" activeCellId="0" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -7699,13 +7616,13 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="Q24" activeCellId="0" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7770,7 +7687,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7792,15 +7709,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7818,16 +7735,16 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,7 +7791,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>2</v>
@@ -7888,7 +7805,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>3</v>
@@ -7902,7 +7819,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>5</v>
@@ -7916,7 +7833,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>5</v>
@@ -7930,7 +7847,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>4</v>
@@ -7944,7 +7861,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>5</v>
@@ -7958,7 +7875,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="23" t="n">
         <v>6</v>
@@ -7972,7 +7889,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="23" t="n">
         <v>7</v>

--- a/Projects/DIAGEOUS_SAND/Data/Template.xlsx
+++ b/Projects/DIAGEOUS_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="65">
   <si>
     <t>KPI Name</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>6. Lock Box Display</t>
+  </si>
+  <si>
+    <t>OTHER</t>
   </si>
   <si>
     <t>MINIMUM SHELF LOCATION</t>
@@ -552,15 +555,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>310320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365400</xdr:rowOff>
+      <xdr:rowOff>365040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -573,8 +576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="417600" y="7200"/>
-          <a:ext cx="1761480" cy="358200"/>
+          <a:off x="444600" y="7200"/>
+          <a:ext cx="1780200" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -589,15 +592,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>520200</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1563120</xdr:colOff>
+      <xdr:colOff>1589760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330120</xdr:rowOff>
+      <xdr:rowOff>329760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,8 +613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2415600" y="5040"/>
-          <a:ext cx="1042920" cy="325080"/>
+          <a:off x="2461680" y="5040"/>
+          <a:ext cx="1042560" cy="324720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,13 +629,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>416880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>416880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -643,7 +646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2285280" y="2880"/>
+          <a:off x="2331360" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -678,15 +681,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114480</xdr:colOff>
+      <xdr:colOff>141120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365400</xdr:rowOff>
+      <xdr:rowOff>365040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,8 +702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="417600" y="7200"/>
-          <a:ext cx="1801800" cy="358200"/>
+          <a:off x="444600" y="7200"/>
+          <a:ext cx="1820520" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,15 +718,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1590120</xdr:colOff>
+      <xdr:colOff>1616760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330120</xdr:rowOff>
+      <xdr:rowOff>329760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -736,8 +739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457720" y="5040"/>
-          <a:ext cx="1237320" cy="325080"/>
+          <a:off x="2503800" y="5040"/>
+          <a:ext cx="1236960" cy="324720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,13 +755,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -769,7 +772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2319840" y="2880"/>
+          <a:off x="2365920" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -804,15 +807,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2181240</xdr:colOff>
+      <xdr:colOff>2207880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365400</xdr:rowOff>
+      <xdr:rowOff>365040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -825,8 +828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="417600" y="7200"/>
-          <a:ext cx="1763640" cy="358200"/>
+          <a:off x="444600" y="7200"/>
+          <a:ext cx="1763280" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,15 +844,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2411280</xdr:colOff>
+      <xdr:colOff>2438280</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1038960</xdr:colOff>
+      <xdr:colOff>1065600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330120</xdr:rowOff>
+      <xdr:rowOff>329760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,8 +865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2411280" y="5040"/>
-          <a:ext cx="1332720" cy="325080"/>
+          <a:off x="2438280" y="5040"/>
+          <a:ext cx="1351440" cy="324720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,13 +881,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2273400</xdr:colOff>
+      <xdr:colOff>2300400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2273400</xdr:colOff>
+      <xdr:colOff>2300400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
@@ -895,7 +898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2273400" y="2880"/>
+          <a:off x="2300400" y="2880"/>
           <a:ext cx="0" cy="368280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -932,16 +935,16 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -1169,11 +1172,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -3812,13 +3815,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -7024,16 +7027,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -7098,6 +7101,14 @@
         <v>44</v>
       </c>
       <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7125,8 +7136,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -7145,7 +7156,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,17 +7632,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,7 +7658,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7663,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,7 +7690,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7687,7 +7698,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7715,9 +7726,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7735,21 +7746,21 @@
     </row>
     <row r="3" s="22" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>2</v>
@@ -7763,7 +7774,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>3</v>
@@ -7777,7 +7788,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>5</v>
@@ -7791,7 +7802,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>2</v>
@@ -7805,7 +7816,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>3</v>
@@ -7819,7 +7830,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>5</v>
@@ -7833,7 +7844,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>5</v>
@@ -7847,7 +7858,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>4</v>
@@ -7861,7 +7872,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>5</v>
@@ -7875,7 +7886,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="23" t="n">
         <v>6</v>
@@ -7889,7 +7900,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="23" t="n">
         <v>7</v>

--- a/Projects/DIAGEOUS_SAND/Data/Template.xlsx
+++ b/Projects/DIAGEOUS_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="independent - off_trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t xml:space="preserve">Back Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Back Bar, 1. Back Bar - Restaurant, 1. Back Bar - Pool, 1. Back Bar - Lobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Main Menu, 2. Features Menu, 3. Spirits List Menu, 4. Bottle List Menu, 5. After Dinner / Dessert Menu, 1. Main Menu – Lobby, 1. Main Menu – Pool, 1. Main Menu - Restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">1. Main Shelf, 2. Behind the Counter Shelf, 3. Cold Box Shelf, 1. Floor Display, 2. End Cap Display, 3. Rack Display, 4. One Case Bin Display, 5. Standalone Barrel Display, 6. Lock Box Display, 1. Spirits Main Shelf - OLD, 3. Spirits Behind the Counter Shelf - OLD</t>
@@ -345,15 +351,15 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1457489878542"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
   </cols>
@@ -435,7 +441,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -491,15 +497,15 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -545,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
@@ -562,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.25</v>
@@ -595,9 +601,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.7044534412956"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
   </cols>
@@ -627,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -672,13 +678,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -689,13 +695,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -706,11 +712,11 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -744,16 +750,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -869,77 +875,77 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/DIAGEOUS_SAND/Data/Template.xlsx
+++ b/Projects/DIAGEOUS_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="independent - off_trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -357,14 +357,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0242914979757"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,14 +434,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -497,15 +497,15 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -595,20 +595,20 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.1336032388664"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
